--- a/Documentation/接口交互文档版本记录/详细数据页面接口交互.xlsx
+++ b/Documentation/接口交互文档版本记录/详细数据页面接口交互.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,53 +43,6 @@
   </si>
   <si>
     <t>注：不要传多余的参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json类型的true或false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用到当前晶圆的其余die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarkerSave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coordinateId：当前die的主键；
-markerKey：打marker的依据；
-sParameter：s参数，即TCF页面的入口；
-waferId：晶圆主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除曲线的marker点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClearMarker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curvTypeIdStr：曲线文件主键字符串，英文逗号分隔，首尾不能为逗号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换key时，要先清除原来的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶圆详细数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,6 +82,61 @@
   </si>
   <si>
     <t>字符串(下载地址)，非json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VectorMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId:晶圆主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型集合（deviceGroup：下拉group内容；subdie：下拉subdie内容；mapInfo：晶圆die信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始切换到是矢量图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId:晶圆主键；
+过滤条件：subdie、deviceGroup、dieType，这三个参数有值则传，没有则不传，All的情况也不传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击过滤
+注：此时返回的晶圆die只包含过滤后的，前端需将初始时的所有die置为底色，本接口返回的进行颜色区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VectorCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordinateId：die主键；
+过滤条件：subdie、deviceGroup、dieType，这三个参数有值则传，没有则不传，All的情况也不传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意区分曲线类型，最外层的key为曲线类型，第二层集合的value若有4个则为Smith数据，2个则为普通曲线类型。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -259,13 +267,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,6 +349,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +659,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -655,65 +712,97 @@
     </row>
     <row r="4" spans="1:6" ht="50.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="121.5" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="56.25" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="98.25" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F7" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="141.75" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="141.75" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="43.5" customHeight="1">
       <c r="A9" s="6"/>
@@ -748,46 +837,25 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/接口交互文档版本记录/详细数据页面接口交互.xlsx
+++ b/Documentation/接口交互文档版本记录/详细数据页面接口交互.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>后台控制跳转页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶圆详细数据：导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>矢量图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +129,90 @@
   </si>
   <si>
     <t>注意区分曲线类型，最外层的key为曲线类型，第二层集合的value若有4个则为Smith数据，2个则为普通曲线类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VectorMapFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowYield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferIdStr：晶圆主键Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有信息：数据展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有信息：导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数分布统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良率图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaferMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferIdStr：晶圆主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良率晶圆图/色阶晶圆图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直方图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Histogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色阶晶圆取数据时，不取参数为ALL的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱线图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boxplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPK图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPKServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GaussianDistribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斯分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +257,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,12 +276,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -310,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,13 +402,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -353,13 +417,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -693,14 +754,14 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="4"/>
@@ -712,7 +773,7 @@
     </row>
     <row r="4" spans="1:6" ht="50.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -732,125 +793,213 @@
     </row>
     <row r="5" spans="1:6" ht="121.5" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="56.25" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="56.25" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="98.25" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="98.25" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="110.25" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="111.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="72.75" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+    <row r="13" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+    <row r="14" spans="1:6" ht="68.25" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="72.75" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
